--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_summary_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_summary_General.xlsx
@@ -31,28 +31,28 @@
     <t>ECRPS_Mejor</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
+    <t>LSPM</t>
+  </si>
+  <si>
     <t>EnCQR-LSTM</t>
   </si>
   <si>
-    <t>LSPMW</t>
-  </si>
-  <si>
     <t>Sieve Bootstrap</t>
   </si>
   <si>
-    <t>LSPM</t>
+    <t>AREPD</t>
+  </si>
+  <si>
+    <t>DeepAR</t>
+  </si>
+  <si>
+    <t>Block Bootstrapping</t>
   </si>
   <si>
     <t>AV-MCPS</t>
-  </si>
-  <si>
-    <t>Block Bootstrapping</t>
-  </si>
-  <si>
-    <t>AREPD</t>
-  </si>
-  <si>
-    <t>DeepAR</t>
   </si>
   <si>
     <t>MCPS</t>
@@ -456,10 +456,10 @@
         <v>51.2</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3.283656647113081</v>
+        <v>0.8216699661809612</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -476,7 +476,7 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>0.8216699661809612</v>
+        <v>0.8091217199290309</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -484,16 +484,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>51.2</v>
+        <v>25.6</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
       <c r="E4">
-        <v>0.54857055893315</v>
+        <v>3.283656647113081</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -501,16 +501,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>51.2</v>
+        <v>25.6</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>0.8091217199290309</v>
+        <v>0.54857055893315</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -518,16 +518,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
       <c r="E6">
-        <v>1.390084256731658</v>
+        <v>5.865023106435231</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -535,16 +535,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
       <c r="E7">
-        <v>6.94843834553819</v>
+        <v>1.34919593566908</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -561,7 +561,7 @@
         <v>100</v>
       </c>
       <c r="E8">
-        <v>5.865023106435231</v>
+        <v>6.94843834553819</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -578,7 +578,7 @@
         <v>100</v>
       </c>
       <c r="E9">
-        <v>1.34919593566908</v>
+        <v>1.390084256731658</v>
       </c>
     </row>
     <row r="10" spans="1:5">
